--- a/Ciclo2Proyecto_DioIngenieria/PlaneacionSGCC_DioIngenieria.xlsx
+++ b/Ciclo2Proyecto_DioIngenieria/PlaneacionSGCC_DioIngenieria.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="132">
   <si>
     <t>Task</t>
   </si>
@@ -287,18 +287,9 @@
     <t>Requisitos</t>
   </si>
   <si>
-    <t>Entrevistar a los clientes sobre los reportes financieros que necesitan los ejecutivos de nivel estrategico.</t>
-  </si>
-  <si>
     <t>Entrevistar al administrador sobre la proceso de remuneracion a empleados  y pago de obligaciones de nomina.</t>
   </si>
   <si>
-    <t>Proponer el sistema de manejo de usuarios de ingresos.</t>
-  </si>
-  <si>
-    <t>Realizar especificación del caso de uso generar reportes.</t>
-  </si>
-  <si>
     <t>Realizar especificación del caso de uso administracion de usuarios.</t>
   </si>
   <si>
@@ -311,18 +302,12 @@
     <t>Diseño</t>
   </si>
   <si>
-    <t>Mockups sobre el caso de uso generar reportes.</t>
-  </si>
-  <si>
     <t>Mockups sobre el caso de uso administración de usuarios.</t>
   </si>
   <si>
     <t>Mockups sobre el caso de uso gestión de nomina.</t>
   </si>
   <si>
-    <t>Diagrama de clases de diseño del caso de uso generación de reportes.</t>
-  </si>
-  <si>
     <t>Diagrama de clases de diseño del caso de uso administración de usuarios.</t>
   </si>
   <si>
@@ -332,15 +317,9 @@
     <t>Modelo relacional para el caso de uso administración de usuarios.</t>
   </si>
   <si>
-    <t>Modelo relacional para el caso de uso generación de reportes.</t>
-  </si>
-  <si>
     <t>Modelo relacional para el caso de uso gestión de nomina.</t>
   </si>
   <si>
-    <t>Diagrama de secuencia sobre la generación de reportes.</t>
-  </si>
-  <si>
     <t>Diagrama de secuencia sobre la administracion de usuarios.</t>
   </si>
   <si>
@@ -374,15 +353,9 @@
     <t>Codificación</t>
   </si>
   <si>
-    <t>Implementar el diagrama de clase de generación de reportes.</t>
-  </si>
-  <si>
     <t>Desarrollar interfaz grafica de usuario para la administración de usuarios.</t>
   </si>
   <si>
-    <t>Desarrollar interfaz grafica de usuario para la generación de reportes.</t>
-  </si>
-  <si>
     <t>Implementar el diagrama de clase de gestión de nomina.</t>
   </si>
   <si>
@@ -392,9 +365,6 @@
     <t>Validación y verificación del modulo de administración de usuarios.</t>
   </si>
   <si>
-    <t>Validación y verificación del modulo de generación de reportes.</t>
-  </si>
-  <si>
     <t>Validación y verificación del modulo de gestión de nomina.</t>
   </si>
   <si>
@@ -407,12 +377,6 @@
     <t>Pruebas del funcionamiento de la logica de negocio de la administración de usuarios.</t>
   </si>
   <si>
-    <t>Pruebas del funcionamiento de la logica de negocio de la generación de reportes.</t>
-  </si>
-  <si>
-    <t>Prueba del funcionamiento de la interfaz grafica de generación de reportes.</t>
-  </si>
-  <si>
     <t>Pruebas del funcionamiento de la logica de negocio de la gestión de nomina.</t>
   </si>
   <si>
@@ -441,13 +405,31 @@
   </si>
   <si>
     <t>verificar y validar la especificacion de los casos de uso.</t>
+  </si>
+  <si>
+    <t>Juan David, Samael Cardona, Jhonny Leandro y Jorge Aguirre</t>
+  </si>
+  <si>
+    <t>Juan David</t>
+  </si>
+  <si>
+    <t>Jorge Aguirre</t>
+  </si>
+  <si>
+    <t>Jorge Aguirre, Jhonny Leandro</t>
+  </si>
+  <si>
+    <t>Jhonny Leandro Melo</t>
+  </si>
+  <si>
+    <t>Proponer el sistema de manejo de usuarios.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,13 +477,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="18">
@@ -713,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -880,6 +875,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A20" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3160,6 +3158,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
     <mergeCell ref="G11:G16"/>
     <mergeCell ref="H11:H16"/>
     <mergeCell ref="I11:I16"/>
@@ -3176,9 +3177,6 @@
     <mergeCell ref="E11:E16"/>
     <mergeCell ref="F11:F16"/>
     <mergeCell ref="A5:N5"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="L11:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3186,15 +3184,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:O64"/>
+  <dimension ref="A4:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -3279,7 +3279,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J10" s="47" t="s">
         <v>10</v>
@@ -3288,7 +3288,7 @@
         <v>59</v>
       </c>
       <c r="L10" s="47" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="M10" s="47" t="s">
         <v>61</v>
@@ -3381,8 +3381,8 @@
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>86</v>
+      <c r="B16" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -3394,234 +3394,238 @@
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <f>+(C16/C57)*100</f>
-        <v>3.1746031746031744</v>
+        <f>+(C16/C46)*100</f>
+        <v>3.125</v>
       </c>
       <c r="G16" s="4">
-        <v>3.1746031750000001</v>
+        <v>3.125</v>
       </c>
       <c r="H16" s="4">
         <v>2</v>
       </c>
       <c r="I16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
-        <f>+H16</f>
         <v>2</v>
       </c>
       <c r="K16" s="4">
-        <v>3.1746031750000001</v>
+        <v>3.125</v>
       </c>
       <c r="L16" s="4">
-        <v>3.1746031750000001</v>
+        <v>3.125</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="N16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="66"/>
+    </row>
+    <row r="17" spans="1:15" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>25</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="4">
-        <f>+D16+C17</f>
-        <v>3</v>
+        <f t="shared" ref="D17:D45" si="0">+D16+C17</f>
+        <v>5</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="4">
-        <f>+(C17/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C17/C46)*100</f>
+        <v>4.6875</v>
       </c>
       <c r="G17" s="4">
-        <f>+G16+F17</f>
-        <v>4.7619047623015875</v>
+        <f t="shared" ref="G17:G45" si="1">+G16+F17</f>
+        <v>7.8125</v>
       </c>
       <c r="H17" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" s="4">
-        <f>+J16+H17</f>
-        <v>4</v>
+        <f t="shared" ref="J17:J45" si="2">+J16+H17</f>
+        <v>3</v>
       </c>
       <c r="K17" s="4">
-        <v>1.587301587</v>
+        <v>4.6875</v>
       </c>
       <c r="L17" s="4">
-        <f>+L16+K17</f>
-        <v>4.7619047620000003</v>
+        <f t="shared" ref="L17:L45" si="3">+L16+K17</f>
+        <v>7.8125</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="N17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="O17" s="66"/>
+    </row>
+    <row r="18" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ref="D18:D56" si="0">+D17+C18</f>
-        <v>5</v>
+        <f>D17+C18</f>
+        <v>6</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" s="4">
-        <f>+(C18/C57)*100</f>
-        <v>3.1746031746031744</v>
+        <f>+(C18/C46)*100</f>
+        <v>1.5625</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" ref="G18:G56" si="1">+G17+F18</f>
-        <v>7.9365079369047624</v>
+        <f t="shared" si="1"/>
+        <v>9.375</v>
       </c>
       <c r="H18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" ref="J18:J21" si="2">+J17+H18</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K18" s="4">
-        <v>3.1746031750000001</v>
+        <v>1.5625</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" ref="L18:L21" si="3">+L17+K18</f>
-        <v>7.936507937</v>
+        <f t="shared" si="3"/>
+        <v>9.375</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="N18" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O18" s="66"/>
+    </row>
+    <row r="19" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" ref="D19:D20" si="4">D18+C19</f>
+        <v>8</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="4">
-        <f>+(C19/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C19/C46)*100</f>
+        <v>3.125</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="1"/>
-        <v>9.5238095242063494</v>
+        <v>12.5</v>
       </c>
       <c r="H19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19" s="4">
-        <v>1.587301587</v>
+        <v>3.125</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="3"/>
-        <v>9.5238095240000007</v>
+        <v>12.5</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="N19" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="66"/>
+    </row>
+    <row r="20" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <f>+(C20/C57)*100</f>
-        <v>3.1746031746031744</v>
+        <f>+(C20/C46)*100</f>
+        <v>3.125</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="1"/>
-        <v>12.698412698809523</v>
+        <v>15.625</v>
       </c>
       <c r="H20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K20" s="4">
-        <v>3.1746031750000001</v>
+        <v>3.125</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="3"/>
-        <v>12.698412699</v>
+        <v>15.625</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="N20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="O20" s="66"/>
+    </row>
+    <row r="21" spans="1:15" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>91</v>
@@ -3631,18 +3635,18 @@
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="4">
-        <f>+(C21/C57)*100</f>
-        <v>3.1746031746031744</v>
+        <f>+(C21/C46)*100</f>
+        <v>3.125</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="1"/>
-        <v>15.873015873412697</v>
+        <v>18.75</v>
       </c>
       <c r="H21" s="4">
         <v>1</v>
@@ -3652,847 +3656,1196 @@
       </c>
       <c r="J21" s="4">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K21" s="4">
-        <v>3.1746031750000001</v>
+        <v>3.125</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="3"/>
-        <v>15.873015874</v>
+        <v>18.75</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="N21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="O21" s="66"/>
+    </row>
+    <row r="22" spans="1:15" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
       </c>
       <c r="F22" s="4">
-        <f>+(C22/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C22/C46)*100</f>
+        <v>3.125</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="1"/>
-        <v>17.460317460714286</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+        <v>21.875</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K22" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="3"/>
+        <v>21.875</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="N22" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="66"/>
+    </row>
+    <row r="23" spans="1:15" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C23" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
       </c>
       <c r="F23" s="4">
-        <f>+(C23/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C23/C46)*100</f>
+        <v>4.6875</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="1"/>
-        <v>19.047619048015875</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+        <v>26.5625</v>
+      </c>
+      <c r="H23" s="4">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="K23" s="4">
+        <v>4.6875</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="3"/>
+        <v>26.5625</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="N23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="O23" s="66"/>
+    </row>
+    <row r="24" spans="1:15" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E24" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="4">
-        <f>+(C24/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C24/C46)*100</f>
+        <v>4.6875</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="1"/>
-        <v>20.634920635317464</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+        <v>31.25</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="K24" s="4">
+        <v>4.6875</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="3"/>
+        <v>31.25</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="N24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="O24" s="66"/>
+    </row>
+    <row r="25" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4">
-        <f>+(C25/C57)*100</f>
-        <v>3.1746031746031744</v>
+        <f>+(C25/C46)*100</f>
+        <v>3.125</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="1"/>
-        <v>23.809523809920638</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+        <v>34.375</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="K25" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="3"/>
+        <v>34.375</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="N25" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="O25" s="66"/>
+    </row>
+    <row r="26" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4">
+        <f>+(C26/C46)*100</f>
+        <v>4.6875</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>39.0625</v>
+      </c>
+      <c r="H26" s="4">
         <v>1</v>
       </c>
-      <c r="F26" s="4">
-        <f>+(C26/C57)*100</f>
-        <v>1.5873015873015872</v>
-      </c>
-      <c r="G26" s="4">
-        <f>+G25+F26</f>
-        <v>25.396825397222226</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K26" s="4">
+        <v>4.6875</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="3"/>
+        <v>39.0625</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N26" s="4">
+        <v>3</v>
+      </c>
+      <c r="O26" s="66"/>
+    </row>
+    <row r="27" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E27" s="4">
         <v>2</v>
       </c>
       <c r="F27" s="4">
-        <f>+(C27/C57)*100</f>
-        <v>4.7619047619047619</v>
+        <f>+(C27/C46)*100</f>
+        <v>3.125</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="1"/>
-        <v>30.158730159126989</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42.1875</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K27" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="3"/>
+        <v>42.1875</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N27" s="4">
+        <v>3</v>
+      </c>
+      <c r="O27" s="66"/>
+    </row>
+    <row r="28" spans="1:15" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E28" s="4">
         <v>2</v>
       </c>
       <c r="F28" s="4">
-        <f>+(C28/C57)*100</f>
-        <v>4.7619047619047619</v>
+        <f>+(C28/C46)*100</f>
+        <v>3.125</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="1"/>
-        <v>34.920634921031748</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45.3125</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="K28" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E29" s="4">
         <v>2</v>
       </c>
       <c r="F29" s="4">
-        <f>+(C29/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C29/C46)*100</f>
+        <v>3.125</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="1"/>
-        <v>36.507936508333337</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48.4375</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="K29" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="3"/>
+        <v>48.4375</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N29" s="4">
+        <v>3</v>
+      </c>
+      <c r="O29" s="66"/>
+    </row>
+    <row r="30" spans="1:15" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E30" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="4">
-        <f>+(C30/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C30/C46)*100</f>
+        <v>1.5625</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="1"/>
-        <v>38.095238095634926</v>
-      </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1.5625</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N30" s="4">
+        <v>3</v>
+      </c>
+      <c r="O30" s="66"/>
+    </row>
+    <row r="31" spans="1:15" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="B31" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="C31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E31" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="4">
-        <f>+(C31/C57)*100</f>
-        <v>3.1746031746031744</v>
+        <f>+(C31/C46)*100</f>
+        <v>1.5625</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="1"/>
-        <v>41.269841270238103</v>
-      </c>
-      <c r="H31" s="4"/>
+        <v>51.5625</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2</v>
+      </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="4">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1.5625</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" si="3"/>
+        <v>51.5625</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" s="4">
+        <v>3</v>
+      </c>
+      <c r="O31" s="67"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E32" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="4">
-        <f>+(C32/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C32/C46)*100</f>
+        <v>1.5625</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="1"/>
-        <v>42.857142857539692</v>
-      </c>
-      <c r="H32" s="4"/>
+        <v>53.125</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2</v>
+      </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="4">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1.5625</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="3"/>
+        <v>53.125</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C33" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E33" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="4">
-        <f>+(C33/C57)*100</f>
-        <v>3.1746031746031744</v>
+        <f>+(C33/C46)*100</f>
+        <v>1.5625</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="1"/>
-        <v>46.03174603214287</v>
-      </c>
-      <c r="H33" s="4"/>
+        <v>54.6875</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2</v>
+      </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="4">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1.5625</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="3"/>
+        <v>54.6875</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N33" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E34" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="4">
-        <f>+(C34/C57)*100</f>
-        <v>3.1746031746031744</v>
+        <f>+(C34/C46)*100</f>
+        <v>1.5625</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="1"/>
-        <v>49.206349206746047</v>
-      </c>
-      <c r="H34" s="4"/>
+        <v>56.25</v>
+      </c>
+      <c r="H34" s="4">
+        <v>2</v>
+      </c>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="4">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1.5625</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="3"/>
+        <v>56.25</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N34" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E35" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="4">
-        <f>+(C35/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C35/C46)*100</f>
+        <v>1.5625</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="1"/>
-        <v>50.793650794047636</v>
-      </c>
-      <c r="H35" s="4"/>
+        <v>57.8125</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2</v>
+      </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="4">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1.5625</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" si="3"/>
+        <v>57.8125</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N35" s="4">
+        <v>3</v>
+      </c>
+      <c r="O35" s="68"/>
+    </row>
+    <row r="36" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E36" s="4">
         <v>3</v>
       </c>
       <c r="F36" s="4">
-        <f>+(C36/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C36/C46)*100</f>
+        <v>4.6875</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="1"/>
-        <v>52.380952381349225</v>
-      </c>
-      <c r="H36" s="4"/>
+        <v>62.5</v>
+      </c>
+      <c r="H36" s="4">
+        <v>5</v>
+      </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="4">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="K36" s="4">
+        <v>4.6875</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="3"/>
+        <v>62.5</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N36" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C37" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="4">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E37" s="4">
         <v>3</v>
       </c>
       <c r="F37" s="4">
-        <f>+(C37/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C37/C46)*100</f>
+        <v>3.125</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="1"/>
-        <v>53.968253968650814</v>
-      </c>
-      <c r="H37" s="4"/>
+        <v>65.625</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2</v>
+      </c>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="4">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="K37" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="L37" s="4">
+        <f t="shared" si="3"/>
+        <v>65.625</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N37" s="4">
+        <v>3</v>
+      </c>
+      <c r="O37" s="66"/>
+    </row>
+    <row r="38" spans="1:15" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C38" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38" s="4">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E38" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" s="4">
-        <f>+(C38/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C38/C46)*100</f>
+        <v>7.8125</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="1"/>
-        <v>55.555555555952402</v>
-      </c>
-      <c r="H38" s="4"/>
+        <v>73.4375</v>
+      </c>
+      <c r="H38" s="4">
+        <v>6</v>
+      </c>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J38" s="4">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="K38" s="4">
+        <v>7.8125</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="3"/>
+        <v>73.4375</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N38" s="4">
+        <v>3</v>
+      </c>
+      <c r="O38" s="66"/>
+    </row>
+    <row r="39" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="4">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E39" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="4">
-        <f>+(C39/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C39/C46)*100</f>
+        <v>3.125</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="1"/>
-        <v>57.142857143253991</v>
-      </c>
-      <c r="H39" s="4"/>
+        <v>76.5625</v>
+      </c>
+      <c r="H39" s="4">
+        <v>3</v>
+      </c>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K39" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" si="3"/>
+        <v>76.5625</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N39" s="4">
+        <v>3</v>
+      </c>
+      <c r="O39" s="66"/>
+    </row>
+    <row r="40" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
       </c>
       <c r="D40" s="4">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E40" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F40" s="4">
-        <f>+(C40/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C40/C46)*100</f>
+        <v>1.5625</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="1"/>
-        <v>58.73015873055558</v>
-      </c>
-      <c r="H40" s="4"/>
+        <v>78.125</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2</v>
+      </c>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="4">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1.5625</v>
+      </c>
+      <c r="L40" s="4">
+        <f t="shared" si="3"/>
+        <v>78.125</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N40" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C41" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E41" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" s="4">
-        <f>+(C41/C57)*100</f>
-        <v>1.5873015873015872</v>
+        <f>+(C41/C46)*100</f>
+        <v>3.125</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="1"/>
-        <v>60.317460317857169</v>
-      </c>
-      <c r="H41" s="4"/>
+        <v>81.25</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J41" s="4">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="K41" s="4">
+        <v>3.125</v>
+      </c>
+      <c r="L41" s="4">
+        <f t="shared" si="3"/>
+        <v>81.25</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N41" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C42" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E42" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F42" s="4">
-        <f>+(C42/C57)*100</f>
-        <v>3.1746031746031744</v>
+        <f>+(C42/C46)*100</f>
+        <v>4.6875</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="1"/>
-        <v>63.492063492460346</v>
-      </c>
-      <c r="H42" s="4"/>
+        <v>85.9375</v>
+      </c>
+      <c r="H42" s="4">
+        <v>3</v>
+      </c>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J42" s="4">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="K42" s="4">
+        <v>4.6875</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="3"/>
+        <v>85.9375</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N42" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="C43" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" s="4">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E43" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" s="4">
-        <f>+(C43/C57)*100</f>
-        <v>3.1746031746031744</v>
+        <f>+(C43/C46)*100</f>
+        <v>4.6875</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="1"/>
-        <v>66.666666667063524</v>
-      </c>
-      <c r="H43" s="4"/>
+        <v>90.625</v>
+      </c>
+      <c r="H43" s="4">
+        <v>4</v>
+      </c>
       <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="4">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="K43" s="4">
+        <v>4.6875</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="3"/>
+        <v>90.625</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N43" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C44" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E44" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" s="4">
-        <f>+(C44/C57)*100</f>
-        <v>6.3492063492063489</v>
+        <f>+(C44/C46)*100</f>
+        <v>4.6875</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="1"/>
-        <v>73.015873016269879</v>
-      </c>
-      <c r="H44" s="4"/>
+        <v>95.3125</v>
+      </c>
+      <c r="H44" s="4">
+        <v>3</v>
+      </c>
       <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="4">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="K44" s="4">
+        <v>4.6875</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="3"/>
+        <v>95.3125</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N44" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C45" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" s="4">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E45" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" s="4">
-        <f>+(C45/C57)*100</f>
-        <v>3.1746031746031744</v>
+        <f>+(C45/C46)*100</f>
+        <v>4.6875</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="1"/>
-        <v>76.190476190873056</v>
-      </c>
-      <c r="H45" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="H45" s="4">
+        <v>3</v>
+      </c>
       <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="K45" s="4">
+        <v>4.6875</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N45" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="3">
-        <v>4</v>
-      </c>
-      <c r="D46" s="4">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="E46" s="4">
-        <v>4</v>
-      </c>
+        <f>SUM(C16:C45)</f>
+        <v>64</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="4">
-        <f>+(C46/C57)*100</f>
-        <v>6.3492063492063489</v>
-      </c>
-      <c r="G46" s="4">
-        <f t="shared" si="1"/>
-        <v>82.539682540079411</v>
-      </c>
+        <f>SUM(F16:F45)</f>
+        <v>100</v>
+      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
@@ -4501,31 +4854,14 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="3">
-        <v>2</v>
-      </c>
-      <c r="D47" s="4">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="E47" s="4">
-        <v>4</v>
-      </c>
-      <c r="F47" s="4">
-        <f>+(C47/C57)*100</f>
-        <v>3.1746031746031744</v>
-      </c>
-      <c r="G47" s="4">
-        <f t="shared" si="1"/>
-        <v>85.714285714682589</v>
-      </c>
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -4534,31 +4870,14 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1</v>
-      </c>
-      <c r="D48" s="4">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="E48" s="4">
-        <v>4</v>
-      </c>
-      <c r="F48" s="4">
-        <f>+(C48/C57)*100</f>
-        <v>1.5873015873015872</v>
-      </c>
-      <c r="G48" s="4">
-        <f t="shared" si="1"/>
-        <v>87.301587301984171</v>
-      </c>
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -4567,31 +4886,14 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1</v>
-      </c>
-      <c r="D49" s="4">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="E49" s="4">
-        <v>4</v>
-      </c>
-      <c r="F49" s="4">
-        <f>+(C49/C57)*100</f>
-        <v>1.5873015873015872</v>
-      </c>
-      <c r="G49" s="4">
-        <f t="shared" si="1"/>
-        <v>88.888888889285752</v>
-      </c>
+    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -4600,31 +4902,14 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1</v>
-      </c>
-      <c r="D50" s="4">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="E50" s="4">
-        <v>4</v>
-      </c>
-      <c r="F50" s="4">
-        <f>+(C50/C57)*100</f>
-        <v>1.5873015873015872</v>
-      </c>
-      <c r="G50" s="4">
-        <f t="shared" si="1"/>
-        <v>90.476190476587334</v>
-      </c>
+    <row r="50" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -4633,31 +4918,14 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="3">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="E51" s="4">
-        <v>4</v>
-      </c>
-      <c r="F51" s="4">
-        <f>+(C51/C57)*100</f>
-        <v>1.5873015873015872</v>
-      </c>
-      <c r="G51" s="4">
-        <f t="shared" si="1"/>
-        <v>92.063492063888916</v>
-      </c>
+    <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -4666,327 +4934,60 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" s="3">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="E52" s="4">
-        <v>4</v>
-      </c>
-      <c r="F52" s="4">
-        <f>+(C52/C57)*100</f>
-        <v>1.5873015873015872</v>
-      </c>
-      <c r="G52" s="4">
-        <f t="shared" si="1"/>
-        <v>93.650793651190497</v>
-      </c>
+    <row r="52" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-    </row>
-    <row r="53" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="3">
-        <v>1</v>
-      </c>
-      <c r="D53" s="4">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E53" s="4">
-        <v>4</v>
-      </c>
-      <c r="F53" s="4">
-        <f>+(C53/C57)*100</f>
-        <v>1.5873015873015872</v>
-      </c>
-      <c r="G53" s="4">
-        <f t="shared" si="1"/>
-        <v>95.238095238492079</v>
-      </c>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="11"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-    </row>
-    <row r="54" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="4">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="E54" s="4">
-        <v>4</v>
-      </c>
-      <c r="F54" s="4">
-        <f>+(C54/C57)*100</f>
-        <v>1.5873015873015872</v>
-      </c>
-      <c r="G54" s="4">
-        <f t="shared" si="1"/>
-        <v>96.825396825793661</v>
-      </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-    </row>
-    <row r="55" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="4">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="E55" s="4">
-        <v>4</v>
-      </c>
-      <c r="F55" s="4">
-        <f>+(C55/C57)*100</f>
-        <v>1.5873015873015872</v>
-      </c>
-      <c r="G55" s="4">
-        <f t="shared" si="1"/>
-        <v>98.412698413095242</v>
-      </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-    </row>
-    <row r="56" spans="1:14" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="4">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="E56" s="4">
-        <v>4</v>
-      </c>
-      <c r="F56" s="4">
-        <f>+(C56/C57)*100</f>
-        <v>1.5873015873015872</v>
-      </c>
-      <c r="G56" s="4">
-        <f t="shared" si="1"/>
-        <v>100.00000000039682</v>
-      </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3">
-        <f>SUM(C16:C56)</f>
-        <v>63</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4">
-        <f>SUM(F16:F56)</f>
-        <v>100</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-    </row>
-    <row r="60" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-    </row>
-    <row r="61" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-    </row>
-    <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-    </row>
-    <row r="63" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-    </row>
-    <row r="64" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="L10:L15"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="E10:E15"/>
     <mergeCell ref="M10:M15"/>
     <mergeCell ref="G10:G15"/>
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="J10:J15"/>
     <mergeCell ref="N10:N15"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="L10:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4997,7 +4998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
